--- a/Results_paper Index.xlsx
+++ b/Results_paper Index.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrofierroz/Dropbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrofierroz/Dropbox/Academia/Projects/Project_Digital_Index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFC29AB-BC08-6548-8060-66661B2A0C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5408C86-53B3-7546-A422-85E5C43AD654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{3A38F12A-B58F-574A-A2B0-44DB3AD0B585}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{3A38F12A-B58F-574A-A2B0-44DB3AD0B585}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="OPE" sheetId="1" r:id="rId1"/>
+    <sheet name="USE" sheetId="2" r:id="rId2"/>
+    <sheet name="Territ." sheetId="3" r:id="rId3"/>
+    <sheet name="Interact." sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="305">
   <si>
     <t>Contextual dimension</t>
   </si>
@@ -82,141 +83,21 @@
     <t>OPE (Factor)</t>
   </si>
   <si>
-    <t>(0.189)</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
     <t>(0.014)</t>
   </si>
   <si>
-    <t>(0.028)</t>
-  </si>
-  <si>
-    <t>(0.0009)</t>
-  </si>
-  <si>
-    <t>(0.018)</t>
-  </si>
-  <si>
     <t>(0.009)</t>
   </si>
   <si>
-    <t>-0.111***</t>
-  </si>
-  <si>
-    <t>`-0.005***</t>
-  </si>
-  <si>
-    <t>0.032†</t>
-  </si>
-  <si>
-    <t>0.206***</t>
-  </si>
-  <si>
-    <t>(0.164)</t>
-  </si>
-  <si>
-    <t>-0.016</t>
-  </si>
-  <si>
-    <t>(0.017)</t>
-  </si>
-  <si>
     <t>(0.025)</t>
   </si>
   <si>
-    <t>(0.001)</t>
-  </si>
-  <si>
-    <t>(0.008)</t>
-  </si>
-  <si>
-    <t>0.334*</t>
-  </si>
-  <si>
-    <t>-0.107***</t>
-  </si>
-  <si>
-    <t>-0.003***</t>
-  </si>
-  <si>
-    <t>0.29***</t>
-  </si>
-  <si>
-    <t>(0.013)</t>
-  </si>
-  <si>
     <t>ope2</t>
   </si>
   <si>
-    <t>(0.169)</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>(0.026)</t>
-  </si>
-  <si>
-    <t>-0.119***</t>
-  </si>
-  <si>
-    <t>-0.006***</t>
-  </si>
-  <si>
-    <t>0.285***</t>
-  </si>
-  <si>
-    <t>(0.163)</t>
-  </si>
-  <si>
-    <t>(0.016)</t>
-  </si>
-  <si>
-    <t>-0.033†</t>
-  </si>
-  <si>
-    <t>-0.128***</t>
-  </si>
-  <si>
-    <t>(-0.013)***</t>
-  </si>
-  <si>
-    <t>0.03†</t>
-  </si>
-  <si>
-    <t>0.024**</t>
-  </si>
-  <si>
-    <t>0.313***</t>
-  </si>
-  <si>
-    <t>(0.159)</t>
-  </si>
-  <si>
-    <t>(0.024)</t>
-  </si>
-  <si>
-    <t>-0.000</t>
-  </si>
-  <si>
     <t>(0.007)</t>
   </si>
   <si>
-    <t>-0.038*</t>
-  </si>
-  <si>
-    <t>-0.073**</t>
-  </si>
-  <si>
-    <t>0.04*</t>
-  </si>
-  <si>
-    <t>0.208***</t>
-  </si>
-  <si>
     <t>know_web</t>
   </si>
   <si>
@@ -232,186 +113,6 @@
     <t>use_other</t>
   </si>
   <si>
-    <t>Online Political Efficacy (ope1)</t>
-  </si>
-  <si>
-    <t>2.116***</t>
-  </si>
-  <si>
-    <t>(0.33)</t>
-  </si>
-  <si>
-    <t>-0.257***</t>
-  </si>
-  <si>
-    <t>(0.035)</t>
-  </si>
-  <si>
-    <t>0.39***</t>
-  </si>
-  <si>
-    <t>(0.027)</t>
-  </si>
-  <si>
-    <t>-0.001</t>
-  </si>
-  <si>
-    <t>(0.021)</t>
-  </si>
-  <si>
-    <t>0.205***</t>
-  </si>
-  <si>
-    <t>(0.049)</t>
-  </si>
-  <si>
-    <t>-0.021***</t>
-  </si>
-  <si>
-    <t>0.062†</t>
-  </si>
-  <si>
-    <t>(0.032)</t>
-  </si>
-  <si>
-    <t>0.27***</t>
-  </si>
-  <si>
-    <t>(0.015)</t>
-  </si>
-  <si>
-    <t>2.105***</t>
-  </si>
-  <si>
-    <t>(0.37)</t>
-  </si>
-  <si>
-    <t>-0.202***</t>
-  </si>
-  <si>
-    <t>(0.038)</t>
-  </si>
-  <si>
-    <t>0.296***</t>
-  </si>
-  <si>
-    <t>(0.029)</t>
-  </si>
-  <si>
-    <t>-0.057*</t>
-  </si>
-  <si>
-    <t>(0.023)</t>
-  </si>
-  <si>
-    <t>-0.055</t>
-  </si>
-  <si>
-    <t>(0.054)</t>
-  </si>
-  <si>
-    <t>`-0.014***</t>
-  </si>
-  <si>
-    <t>(0.002)</t>
-  </si>
-  <si>
-    <t>0.059†</t>
-  </si>
-  <si>
-    <t>0.244***</t>
-  </si>
-  <si>
-    <t>1.876***</t>
-  </si>
-  <si>
-    <t>(0.343)</t>
-  </si>
-  <si>
-    <t>-0.236***</t>
-  </si>
-  <si>
-    <t>(0.036)</t>
-  </si>
-  <si>
-    <t>0.4***</t>
-  </si>
-  <si>
-    <t>-0.002</t>
-  </si>
-  <si>
-    <t>(0.022)</t>
-  </si>
-  <si>
-    <t>0.276***</t>
-  </si>
-  <si>
-    <t>(0.051)</t>
-  </si>
-  <si>
-    <t>-0.019***</t>
-  </si>
-  <si>
-    <t>(0.033)</t>
-  </si>
-  <si>
-    <t>0.25***</t>
-  </si>
-  <si>
-    <t>1.015*</t>
-  </si>
-  <si>
-    <t>(0.455)</t>
-  </si>
-  <si>
-    <t>-0.229***</t>
-  </si>
-  <si>
-    <t>0.378***</t>
-  </si>
-  <si>
-    <t>0.179**</t>
-  </si>
-  <si>
-    <t>(0.068)</t>
-  </si>
-  <si>
-    <t>-0.049</t>
-  </si>
-  <si>
-    <t>(0.043)</t>
-  </si>
-  <si>
-    <t>0.155***</t>
-  </si>
-  <si>
-    <t>3.227***</t>
-  </si>
-  <si>
-    <t>(0.479)</t>
-  </si>
-  <si>
-    <t>-0.39***</t>
-  </si>
-  <si>
-    <t>0.303***</t>
-  </si>
-  <si>
-    <t>0.063*</t>
-  </si>
-  <si>
-    <t>0.172*</t>
-  </si>
-  <si>
-    <t>0.069)</t>
-  </si>
-  <si>
-    <t>-0.017***</t>
-  </si>
-  <si>
-    <t>0.214***</t>
-  </si>
-  <si>
     <t>Population (log)</t>
   </si>
   <si>
@@ -434,6 +135,825 @@
   </si>
   <si>
     <t>(0.011)</t>
+  </si>
+  <si>
+    <t>Pandemic</t>
+  </si>
+  <si>
+    <t>Post Pandemic (=1)</t>
+  </si>
+  <si>
+    <t>OPE</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>(0.1213143)</t>
+  </si>
+  <si>
+    <t>(0.0124830)</t>
+  </si>
+  <si>
+    <t>(0.0178191)</t>
+  </si>
+  <si>
+    <t>(0.0005332)</t>
+  </si>
+  <si>
+    <t>(0.0119056)</t>
+  </si>
+  <si>
+    <t>(0.0054467)</t>
+  </si>
+  <si>
+    <t>-0.0279262*</t>
+  </si>
+  <si>
+    <t>0.3904228***</t>
+  </si>
+  <si>
+    <t>-0.1221419***</t>
+  </si>
+  <si>
+    <t>-0.0053530***</t>
+  </si>
+  <si>
+    <t>0.033739**</t>
+  </si>
+  <si>
+    <t>0.018304***</t>
+  </si>
+  <si>
+    <t>-0.0227264</t>
+  </si>
+  <si>
+    <t>0.3681049*</t>
+  </si>
+  <si>
+    <t>0.4221601***</t>
+  </si>
+  <si>
+    <t>0.0223831**</t>
+  </si>
+  <si>
+    <t>0.0436365**</t>
+  </si>
+  <si>
+    <t>-0.1458109***</t>
+  </si>
+  <si>
+    <t>-0.0043021***</t>
+  </si>
+  <si>
+    <t>(0.1723867)</t>
+  </si>
+  <si>
+    <t>(0.0177382)</t>
+  </si>
+  <si>
+    <t>(0.0253208)</t>
+  </si>
+  <si>
+    <t>(0.0007577)</t>
+  </si>
+  <si>
+    <t>(0.0169178)</t>
+  </si>
+  <si>
+    <t>(0.0077398)</t>
+  </si>
+  <si>
+    <t>(0.0275152)</t>
+  </si>
+  <si>
+    <t>(0.1768510)</t>
+  </si>
+  <si>
+    <t>(0.0181976)</t>
+  </si>
+  <si>
+    <t>(0.0259766)</t>
+  </si>
+  <si>
+    <t>(0.0007773)</t>
+  </si>
+  <si>
+    <t>(0.0173559)</t>
+  </si>
+  <si>
+    <t>(0.0079402)</t>
+  </si>
+  <si>
+    <t>(0.0282278)</t>
+  </si>
+  <si>
+    <t>-0.0317399†</t>
+  </si>
+  <si>
+    <t>0.5013642***</t>
+  </si>
+  <si>
+    <t>0.0209949**</t>
+  </si>
+  <si>
+    <t>0.0344686*</t>
+  </si>
+  <si>
+    <t>-0.0067916***</t>
+  </si>
+  <si>
+    <t>-0.1555127***</t>
+  </si>
+  <si>
+    <t>(0.171315)</t>
+  </si>
+  <si>
+    <t>(0.017628)</t>
+  </si>
+  <si>
+    <t>(0.025163)</t>
+  </si>
+  <si>
+    <t>(0.016813)</t>
+  </si>
+  <si>
+    <t>(0.007692)</t>
+  </si>
+  <si>
+    <t>(0.027344)</t>
+  </si>
+  <si>
+    <t>-0.046720**</t>
+  </si>
+  <si>
+    <t>-0.160642***</t>
+  </si>
+  <si>
+    <t>-0.014181***</t>
+  </si>
+  <si>
+    <t>(0.000753)*</t>
+  </si>
+  <si>
+    <t>0.037164***</t>
+  </si>
+  <si>
+    <t>0.515928***</t>
+  </si>
+  <si>
+    <t>-0.0119673</t>
+  </si>
+  <si>
+    <t>-0.0003038</t>
+  </si>
+  <si>
+    <t>(0.1661097)</t>
+  </si>
+  <si>
+    <t>(0.0170923)</t>
+  </si>
+  <si>
+    <t>(0.0243989)</t>
+  </si>
+  <si>
+    <t>(0.0007301)</t>
+  </si>
+  <si>
+    <t>(0.0163018)</t>
+  </si>
+  <si>
+    <t>(0.0074580)</t>
+  </si>
+  <si>
+    <t>(0.0265133)</t>
+  </si>
+  <si>
+    <t>-0.0401690*</t>
+  </si>
+  <si>
+    <t>0.3692303***</t>
+  </si>
+  <si>
+    <t>-0.0968882***</t>
+  </si>
+  <si>
+    <t>0.046279**</t>
+  </si>
+  <si>
+    <t>Year Fixed Effect</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>use(factor)</t>
+  </si>
+  <si>
+    <t>Online Political Efficacy</t>
+  </si>
+  <si>
+    <t>(0.339595)</t>
+  </si>
+  <si>
+    <t>(0.034820)</t>
+  </si>
+  <si>
+    <t>(0.049505)</t>
+  </si>
+  <si>
+    <t>(0.001499)</t>
+  </si>
+  <si>
+    <t>(0.032318)</t>
+  </si>
+  <si>
+    <t>(0.015226)</t>
+  </si>
+  <si>
+    <t>(0.029654)</t>
+  </si>
+  <si>
+    <t>(0.057367)</t>
+  </si>
+  <si>
+    <t>2.107829***</t>
+  </si>
+  <si>
+    <t>-0.253695***</t>
+  </si>
+  <si>
+    <t>0.176164***</t>
+  </si>
+  <si>
+    <t>-0.020295***</t>
+  </si>
+  <si>
+    <t>0.065282*</t>
+  </si>
+  <si>
+    <t>0.277412***</t>
+  </si>
+  <si>
+    <t>0.085168**</t>
+  </si>
+  <si>
+    <t>0.730417***</t>
+  </si>
+  <si>
+    <t>-0.066125</t>
+  </si>
+  <si>
+    <t>(0.381490)</t>
+  </si>
+  <si>
+    <t>(0.038892)</t>
+  </si>
+  <si>
+    <t>(0.054179)</t>
+  </si>
+  <si>
+    <t>(0.001681)</t>
+  </si>
+  <si>
+    <t>(0.035205)</t>
+  </si>
+  <si>
+    <t>(0.016983)</t>
+  </si>
+  <si>
+    <t>2.159166***</t>
+  </si>
+  <si>
+    <t>-0.211273***</t>
+  </si>
+  <si>
+    <t>0.640133***</t>
+  </si>
+  <si>
+    <t>0.246204***</t>
+  </si>
+  <si>
+    <t>-0.013808***</t>
+  </si>
+  <si>
+    <t>(0.354132)</t>
+  </si>
+  <si>
+    <t>(0.036385)</t>
+  </si>
+  <si>
+    <t>(0.051482)</t>
+  </si>
+  <si>
+    <t>(0.001575)</t>
+  </si>
+  <si>
+    <t>(0.033125)</t>
+  </si>
+  <si>
+    <t>(0.015807)</t>
+  </si>
+  <si>
+    <t>(0.030800)</t>
+  </si>
+  <si>
+    <t>(0.061062)</t>
+  </si>
+  <si>
+    <t>(0.032909)</t>
+  </si>
+  <si>
+    <t>(0.064984)</t>
+  </si>
+  <si>
+    <t>1.91149***</t>
+  </si>
+  <si>
+    <t>-0.236131***</t>
+  </si>
+  <si>
+    <t>0.82804***</t>
+  </si>
+  <si>
+    <t>0.10942***</t>
+  </si>
+  <si>
+    <t>0.240881***</t>
+  </si>
+  <si>
+    <t>-0.018900***</t>
+  </si>
+  <si>
+    <t>0.254644***</t>
+  </si>
+  <si>
+    <t>-0.04779</t>
+  </si>
+  <si>
+    <t>(0.46824)</t>
+  </si>
+  <si>
+    <t>(0.04899)</t>
+  </si>
+  <si>
+    <t>(0.06848)</t>
+  </si>
+  <si>
+    <t>(0.00216)</t>
+  </si>
+  <si>
+    <t>(0.04304)</t>
+  </si>
+  <si>
+    <t>(0.02086)</t>
+  </si>
+  <si>
+    <t>0.99775*</t>
+  </si>
+  <si>
+    <t>-0.21803***</t>
+  </si>
+  <si>
+    <t>0.15498*</t>
+  </si>
+  <si>
+    <t>-0.01990***</t>
+  </si>
+  <si>
+    <t>0.15674***</t>
+  </si>
+  <si>
+    <t>0.13298**</t>
+  </si>
+  <si>
+    <t>0.96316***</t>
+  </si>
+  <si>
+    <t>(0.04086)</t>
+  </si>
+  <si>
+    <t>(0.08521)</t>
+  </si>
+  <si>
+    <t>-0.003923</t>
+  </si>
+  <si>
+    <t>(0.495082)</t>
+  </si>
+  <si>
+    <t>(0.051216)</t>
+  </si>
+  <si>
+    <t>(0.069221)</t>
+  </si>
+  <si>
+    <t>(0.002179)</t>
+  </si>
+  <si>
+    <t>(0.043532)</t>
+  </si>
+  <si>
+    <t>(0.021461)</t>
+  </si>
+  <si>
+    <t>(0.041931)</t>
+  </si>
+  <si>
+    <t>(0.086263)</t>
+  </si>
+  <si>
+    <t>3.324581***</t>
+  </si>
+  <si>
+    <t>-0.394456***</t>
+  </si>
+  <si>
+    <t>0.143215*</t>
+  </si>
+  <si>
+    <t>-0.017069***</t>
+  </si>
+  <si>
+    <t>0.213807***</t>
+  </si>
+  <si>
+    <t>0.090065*</t>
+  </si>
+  <si>
+    <t>0.864697***</t>
+  </si>
+  <si>
+    <t>(0.0352143)</t>
+  </si>
+  <si>
+    <t>(0.0036240)</t>
+  </si>
+  <si>
+    <t>(0.0051856)</t>
+  </si>
+  <si>
+    <t>(0.0001556)</t>
+  </si>
+  <si>
+    <t>(0.0034570)</t>
+  </si>
+  <si>
+    <t>(0.0015819)</t>
+  </si>
+  <si>
+    <t>0.2217469***</t>
+  </si>
+  <si>
+    <t>-0.0278394***</t>
+  </si>
+  <si>
+    <t>0.0857302***</t>
+  </si>
+  <si>
+    <t>0.0121413***</t>
+  </si>
+  <si>
+    <t>0.0178051***</t>
+  </si>
+  <si>
+    <t>-0.0018173***</t>
+  </si>
+  <si>
+    <t>0.0268919***</t>
+  </si>
+  <si>
+    <t>(0.0030985)</t>
+  </si>
+  <si>
+    <t>(0.0057487)</t>
+  </si>
+  <si>
+    <t>Pre-Post</t>
+  </si>
+  <si>
+    <t>Inter. 1</t>
+  </si>
+  <si>
+    <t>Inter. 2</t>
+  </si>
+  <si>
+    <t>USE</t>
+  </si>
+  <si>
+    <t>(0.1206761)</t>
+  </si>
+  <si>
+    <t>(0.0123432)</t>
+  </si>
+  <si>
+    <t>(0.0178380)</t>
+  </si>
+  <si>
+    <t>(0.0005336)</t>
+  </si>
+  <si>
+    <t>(0.0119170)</t>
+  </si>
+  <si>
+    <t>(0.0054572)</t>
+  </si>
+  <si>
+    <t>(0.0192557)</t>
+  </si>
+  <si>
+    <t>(0.0176213)</t>
+  </si>
+  <si>
+    <t>0.2304143†</t>
+  </si>
+  <si>
+    <t>-0.0351266**</t>
+  </si>
+  <si>
+    <t>-0.1205735***</t>
+  </si>
+  <si>
+    <t>-0.0053217***</t>
+  </si>
+  <si>
+    <t>0.033874**</t>
+  </si>
+  <si>
+    <t>0.0187347***</t>
+  </si>
+  <si>
+    <t>0.404187***</t>
+  </si>
+  <si>
+    <t>0.1254509***</t>
+  </si>
+  <si>
+    <t>(0.1205729)</t>
+  </si>
+  <si>
+    <t>(0.0147885)</t>
+  </si>
+  <si>
+    <t>(0.0178231)</t>
+  </si>
+  <si>
+    <t>(0.0005331)</t>
+  </si>
+  <si>
+    <t>(0.0119070)</t>
+  </si>
+  <si>
+    <t>(0.0054526)</t>
+  </si>
+  <si>
+    <t>(0.0192437)</t>
+  </si>
+  <si>
+    <t>(0.2737936)</t>
+  </si>
+  <si>
+    <t>0.2292225†</t>
+  </si>
+  <si>
+    <t>-0.0678727***</t>
+  </si>
+  <si>
+    <t>0.4058642***</t>
+  </si>
+  <si>
+    <t>-0.1200441***</t>
+  </si>
+  <si>
+    <t>-0.0053302***</t>
+  </si>
+  <si>
+    <t>0.0341294**</t>
+  </si>
+  <si>
+    <t>0.0186375***</t>
+  </si>
+  <si>
+    <t>-0.9708419***</t>
+  </si>
+  <si>
+    <t>0.0669685***</t>
+  </si>
+  <si>
+    <t>Post Pandemic * Digitalised Mun.</t>
+  </si>
+  <si>
+    <t>Post Pandemic * Wealthy Mun.</t>
+  </si>
+  <si>
+    <t>(0.0166904)</t>
+  </si>
+  <si>
+    <t>-0.0666476</t>
+  </si>
+  <si>
+    <t>(0.1476112)</t>
+  </si>
+  <si>
+    <t>(0.0123477)</t>
+  </si>
+  <si>
+    <t>(0.0178363)</t>
+  </si>
+  <si>
+    <t>(0.0005335)</t>
+  </si>
+  <si>
+    <t>(0.0119158)</t>
+  </si>
+  <si>
+    <t>(0.0054565)</t>
+  </si>
+  <si>
+    <t>(0.0192543)</t>
+  </si>
+  <si>
+    <t>(0.1073761)</t>
+  </si>
+  <si>
+    <t>(0.1628510)</t>
+  </si>
+  <si>
+    <t>-0.0344183**</t>
+  </si>
+  <si>
+    <t>0.4045632***</t>
+  </si>
+  <si>
+    <t>-0.1208453***</t>
+  </si>
+  <si>
+    <t>-0.0053251***</t>
+  </si>
+  <si>
+    <t>0.0337035**</t>
+  </si>
+  <si>
+    <t>0.0187279***</t>
+  </si>
+  <si>
+    <t>0.2953475†</t>
+  </si>
+  <si>
+    <t>(0.035086)</t>
+  </si>
+  <si>
+    <t>(0.003590)</t>
+  </si>
+  <si>
+    <t>(0.005199)</t>
+  </si>
+  <si>
+    <t>(0.000156)</t>
+  </si>
+  <si>
+    <t>(0.003466)</t>
+  </si>
+  <si>
+    <t>(0.001587)</t>
+  </si>
+  <si>
+    <t>(0.003103)</t>
+  </si>
+  <si>
+    <t>(0.005736)</t>
+  </si>
+  <si>
+    <t>(0.005137)</t>
+  </si>
+  <si>
+    <t>0.200175***</t>
+  </si>
+  <si>
+    <t>-0.025465***</t>
+  </si>
+  <si>
+    <t>0.082989***</t>
+  </si>
+  <si>
+    <t>0.011849***</t>
+  </si>
+  <si>
+    <t>0.01676**</t>
+  </si>
+  <si>
+    <t>-0.001754***</t>
+  </si>
+  <si>
+    <t>0.026914***</t>
+  </si>
+  <si>
+    <t>0.027145***</t>
+  </si>
+  <si>
+    <t>-0.094152</t>
+  </si>
+  <si>
+    <t>(0.035083)</t>
+  </si>
+  <si>
+    <t>(0.004307)</t>
+  </si>
+  <si>
+    <t>(0.005198)</t>
+  </si>
+  <si>
+    <t>(0.003465)</t>
+  </si>
+  <si>
+    <t>(0.003105)</t>
+  </si>
+  <si>
+    <t>(0.005738)</t>
+  </si>
+  <si>
+    <t>(0.079706)</t>
+  </si>
+  <si>
+    <t>(0.004860)</t>
+  </si>
+  <si>
+    <t>0.20009***</t>
+  </si>
+  <si>
+    <t>-0.029097***</t>
+  </si>
+  <si>
+    <t>0.083257***</t>
+  </si>
+  <si>
+    <t>0.011647***</t>
+  </si>
+  <si>
+    <t>0.016794**</t>
+  </si>
+  <si>
+    <t>-0.001756***</t>
+  </si>
+  <si>
+    <t>0.026907***</t>
+  </si>
+  <si>
+    <t>(0.0428849)</t>
+  </si>
+  <si>
+    <t>(0.0035889)</t>
+  </si>
+  <si>
+    <t>(0.0051954)</t>
+  </si>
+  <si>
+    <t>(0.0001559)</t>
+  </si>
+  <si>
+    <t>(0.0034634)</t>
+  </si>
+  <si>
+    <t>(0.0015863)</t>
+  </si>
+  <si>
+    <t>(0.0031010)</t>
+  </si>
+  <si>
+    <t>(0.0057327)</t>
+  </si>
+  <si>
+    <t>(0.0311957)</t>
+  </si>
+  <si>
+    <t>(0.0473206)</t>
+  </si>
+  <si>
+    <t>0.1111118**</t>
+  </si>
+  <si>
+    <t>-0.0250638***</t>
+  </si>
+  <si>
+    <t>-0.0838341**</t>
+  </si>
+  <si>
+    <t>0.1706703***</t>
+  </si>
+  <si>
+    <t>0.0269142***</t>
+  </si>
+  <si>
+    <t>-0.0017574***</t>
+  </si>
+  <si>
+    <t>0.0165765**</t>
+  </si>
+  <si>
+    <t>0.0116326***</t>
+  </si>
+  <si>
+    <t>0.0832944***</t>
   </si>
 </sst>
 </file>
@@ -472,7 +992,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -533,11 +1053,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -575,20 +1148,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,18 +1533,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11028B0-F2EC-CE44-B684-E68617A1D57A}">
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="A2" sqref="A2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -946,7 +1558,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>11</v>
@@ -967,75 +1579,75 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.183698</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>0.1972689</v>
       </c>
       <c r="E4" s="6">
-        <v>0.121</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>0.25025799999999998</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
-        <v>2.4E-2</v>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1050,37 +1662,37 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1095,75 +1707,75 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1171,75 +1783,95 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.2986999999999997E-2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1.0999999999999999E-2</v>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>53</v>
+        <v>85</v>
+      </c>
+      <c r="F18" s="2">
+        <v>6.2744999999999997E-3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1249,372 +1881,449 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379B1821-10E6-D347-89DB-F1B9E12BD1B9}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:F20"/>
+      <selection sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8"/>
-      <c r="B1" s="18" t="s">
-        <v>59</v>
+      <c r="B1" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" s="6"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="6"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3.5194999999999997E-2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="11" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D12" s="6"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1.4E-2</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1.8936999999999999E-3</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5.7806999999999997E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.7188999999999999E-2</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>72</v>
+        <v>186</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +2335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCF623E-5C07-0F4D-B160-E51A8A0D4BF4}">
   <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
@@ -1638,27 +2347,27 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="22" t="s">
-        <v>128</v>
+      <c r="B2" s="18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1">
         <v>3.0000000000000001E-3</v>
@@ -1667,26 +2376,26 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>1.4999999999999999E-2</v>
@@ -1695,10 +2404,563 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63B060A-4B6D-1342-A2FE-477CE9F5D55A}">
+  <dimension ref="B1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C1" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="17"/>
+      <c r="C2" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7.6203199999999999E-2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="19"/>
+      <c r="C5" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="21"/>
+      <c r="C7" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="19"/>
+      <c r="C10" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="17"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="19"/>
+      <c r="C15" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="19"/>
+      <c r="C17" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3.2100000000000002E-3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.2450000000000001E-3</v>
+      </c>
+      <c r="H18" s="24">
+        <v>3.1183999999999999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="19"/>
+      <c r="C19" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="21"/>
+      <c r="C21" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="21"/>
+      <c r="C24" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27">
+        <v>7.4110000000000001E-3</v>
+      </c>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="27"/>
+      <c r="D27" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="27"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results_paper Index.xlsx
+++ b/Results_paper Index.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrofierroz/Dropbox/Academia/Projects/Project_Digital_Index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5408C86-53B3-7546-A422-85E5C43AD654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47FC6CBA-AE12-934D-A632-498A1823D2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{3A38F12A-B58F-574A-A2B0-44DB3AD0B585}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{3A38F12A-B58F-574A-A2B0-44DB3AD0B585}"/>
   </bookViews>
   <sheets>
     <sheet name="OPE" sheetId="1" r:id="rId1"/>
     <sheet name="USE" sheetId="2" r:id="rId2"/>
     <sheet name="Territ." sheetId="3" r:id="rId3"/>
     <sheet name="Interact." sheetId="4" r:id="rId4"/>
+    <sheet name="New Inter. OPE" sheetId="5" r:id="rId5"/>
+    <sheet name="New Inter Use" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="459">
   <si>
     <t>Contextual dimension</t>
   </si>
@@ -954,13 +956,475 @@
   </si>
   <si>
     <t>0.0832944***</t>
+  </si>
+  <si>
+    <t>SES</t>
+  </si>
+  <si>
+    <t>-0.299</t>
+  </si>
+  <si>
+    <t>-0.371</t>
+  </si>
+  <si>
+    <t>-0.410†</t>
+  </si>
+  <si>
+    <t>-0.237</t>
+  </si>
+  <si>
+    <t>-0.295</t>
+  </si>
+  <si>
+    <t>(0.187)</t>
+  </si>
+  <si>
+    <t>(0.308)</t>
+  </si>
+  <si>
+    <t>(0.218)</t>
+  </si>
+  <si>
+    <t>(0.253)</t>
+  </si>
+  <si>
+    <t>(0.188)</t>
+  </si>
+  <si>
+    <t>-0.006***</t>
+  </si>
+  <si>
+    <t>-0.005***</t>
+  </si>
+  <si>
+    <t>-0.007***</t>
+  </si>
+  <si>
+    <t>-0.015***</t>
+  </si>
+  <si>
+    <t>-0.000</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>(0.001)</t>
+  </si>
+  <si>
+    <t>0.193</t>
+  </si>
+  <si>
+    <t>0.380</t>
+  </si>
+  <si>
+    <t>0.211</t>
+  </si>
+  <si>
+    <t>0.255</t>
+  </si>
+  <si>
+    <t>(0.292)</t>
+  </si>
+  <si>
+    <t>(0.432)</t>
+  </si>
+  <si>
+    <t>(0.389)</t>
+  </si>
+  <si>
+    <t>(0.192)</t>
+  </si>
+  <si>
+    <t>(0.470)</t>
+  </si>
+  <si>
+    <t>0.400***</t>
+  </si>
+  <si>
+    <t>0.434***</t>
+  </si>
+  <si>
+    <t>0.513***</t>
+  </si>
+  <si>
+    <t>0.537***</t>
+  </si>
+  <si>
+    <t>0.372***</t>
+  </si>
+  <si>
+    <t>(0.028)</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>(0.039)</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
+    <t>-0.095*</t>
+  </si>
+  <si>
+    <t>-0.106†</t>
+  </si>
+  <si>
+    <t>-0.121*</t>
+  </si>
+  <si>
+    <t>-0.110†</t>
+  </si>
+  <si>
+    <t>-0.106*</t>
+  </si>
+  <si>
+    <t>(0.042)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.055)</t>
+  </si>
+  <si>
+    <t>(0.062)</t>
+  </si>
+  <si>
+    <t>0.022†</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>0.029*</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>0.021†</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.013)</t>
+  </si>
+  <si>
+    <t>(0.015)</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>-0.123***</t>
+  </si>
+  <si>
+    <t>-0.147***</t>
+  </si>
+  <si>
+    <t>-0.157***</t>
+  </si>
+  <si>
+    <t>-0.163***</t>
+  </si>
+  <si>
+    <t>-0.097***</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.032)</t>
+  </si>
+  <si>
+    <t>(0.073)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>Wealthy Municipal X SES</t>
+  </si>
+  <si>
+    <t>Living in a wealthy municipality</t>
+  </si>
+  <si>
+    <t>Living in a digitised municipality</t>
+  </si>
+  <si>
+    <t>OPE Factor</t>
+  </si>
+  <si>
+    <t>ope 1</t>
+  </si>
+  <si>
+    <t>ope 2</t>
+  </si>
+  <si>
+    <t>ope 3</t>
+  </si>
+  <si>
+    <t>ope 4</t>
+  </si>
+  <si>
+    <t>0.395</t>
+  </si>
+  <si>
+    <t>-0.103</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>-0.072</t>
+  </si>
+  <si>
+    <t>-0.450</t>
+  </si>
+  <si>
+    <t>0.042</t>
+  </si>
+  <si>
+    <t>(0.953)</t>
+  </si>
+  <si>
+    <t>(0.750)</t>
+  </si>
+  <si>
+    <t>(0.871)</t>
+  </si>
+  <si>
+    <t>(0.471)</t>
+  </si>
+  <si>
+    <t>(0.464)</t>
+  </si>
+  <si>
+    <t>(0.099)</t>
+  </si>
+  <si>
+    <t>-0.024***</t>
+  </si>
+  <si>
+    <t>-0.017***</t>
+  </si>
+  <si>
+    <t>-0.022***</t>
+  </si>
+  <si>
+    <t>-0.020***</t>
+  </si>
+  <si>
+    <t>-0.002***</t>
+  </si>
+  <si>
+    <t>(0.003)</t>
+  </si>
+  <si>
+    <t>(0.002)</t>
+  </si>
+  <si>
+    <t>(0.004)</t>
+  </si>
+  <si>
+    <t>1.967</t>
+  </si>
+  <si>
+    <t>2.085</t>
+  </si>
+  <si>
+    <t>1.791</t>
+  </si>
+  <si>
+    <t>0.949</t>
+  </si>
+  <si>
+    <t>3.270***</t>
+  </si>
+  <si>
+    <t>0.215</t>
+  </si>
+  <si>
+    <t>(1.231)</t>
+  </si>
+  <si>
+    <t>(1.569)</t>
+  </si>
+  <si>
+    <t>(1.589)</t>
+  </si>
+  <si>
+    <t>(1.248)</t>
+  </si>
+  <si>
+    <t>(0.828)</t>
+  </si>
+  <si>
+    <t>(0.165)</t>
+  </si>
+  <si>
+    <t>0.856***</t>
+  </si>
+  <si>
+    <t>0.760***</t>
+  </si>
+  <si>
+    <t>0.945***</t>
+  </si>
+  <si>
+    <t>1.045***</t>
+  </si>
+  <si>
+    <t>0.966***</t>
+  </si>
+  <si>
+    <t>0.100***</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>(0.096)</t>
+  </si>
+  <si>
+    <t>(0.010)</t>
+  </si>
+  <si>
+    <t>-0.259</t>
+  </si>
+  <si>
+    <t>-0.315</t>
+  </si>
+  <si>
+    <t>-0.186</t>
+  </si>
+  <si>
+    <t>-0.267*</t>
+  </si>
+  <si>
+    <t>-0.553***</t>
+  </si>
+  <si>
+    <t>-0.028</t>
+  </si>
+  <si>
+    <t>(0.204)</t>
+  </si>
+  <si>
+    <t>(0.223)</t>
+  </si>
+  <si>
+    <t>(0.212)</t>
+  </si>
+  <si>
+    <t>(0.135)</t>
+  </si>
+  <si>
+    <t>(0.152)</t>
+  </si>
+  <si>
+    <t>(0.022)</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>-0.014</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>0.045†</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>(0.060)</t>
+  </si>
+  <si>
+    <t>(0.047)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.006)</t>
+  </si>
+  <si>
+    <t>0.102*</t>
+  </si>
+  <si>
+    <t>0.050</t>
+  </si>
+  <si>
+    <t>0.124*</t>
+  </si>
+  <si>
+    <t>0.142*</t>
+  </si>
+  <si>
+    <t>0.100*</t>
+  </si>
+  <si>
+    <t>0.014*</t>
+  </si>
+  <si>
+    <t>(0.048)</t>
+  </si>
+  <si>
+    <t>(0.067)</t>
+  </si>
+  <si>
+    <t>(0.046)</t>
+  </si>
+  <si>
+    <t>0.150*</t>
+  </si>
+  <si>
+    <t>-0.085†</t>
+  </si>
+  <si>
+    <t>0.214**</t>
+  </si>
+  <si>
+    <t>0.141**</t>
+  </si>
+  <si>
+    <t>0.016*</t>
+  </si>
+  <si>
+    <t>(0.072)</t>
+  </si>
+  <si>
+    <t>(0.050)</t>
+  </si>
+  <si>
+    <t>(0.075)</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -979,6 +1443,28 @@
       <b/>
       <i/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
@@ -1110,7 +1596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1177,28 +1663,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1855,7 +2365,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="31" t="s">
         <v>100</v>
       </c>
       <c r="B20" s="29" t="s">
@@ -1867,7 +2377,7 @@
       <c r="D20" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="30" t="s">
         <v>101</v>
       </c>
       <c r="F20" s="29" t="s">
@@ -1884,7 +2394,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:G21"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2304,25 +2814,25 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="32" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2416,7 +2926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63B060A-4B6D-1342-A2FE-477CE9F5D55A}">
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:H29"/>
     </sheetView>
   </sheetViews>
@@ -2432,16 +2942,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="35" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="17"/>
@@ -2544,7 +3054,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="21"/>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="34" t="s">
         <v>201</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -2559,7 +3069,7 @@
       <c r="G7" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="34" t="s">
         <v>287</v>
       </c>
     </row>
@@ -2646,7 +3156,7 @@
       <c r="G12" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="34" t="s">
         <v>292</v>
       </c>
     </row>
@@ -2818,7 +3328,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="34" t="s">
         <v>205</v>
       </c>
       <c r="D21" s="12" t="s">
@@ -2833,7 +3343,7 @@
       <c r="G21" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="34" t="s">
         <v>291</v>
       </c>
     </row>
@@ -2849,7 +3359,7 @@
       <c r="H22" s="24"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="24" t="s">
@@ -2873,7 +3383,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="21"/>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="34" t="s">
         <v>207</v>
       </c>
       <c r="D24" s="12" t="s">
@@ -2888,7 +3398,7 @@
       <c r="G24" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="34" t="s">
         <v>294</v>
       </c>
     </row>
@@ -2924,7 +3434,7 @@
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="35" t="s">
         <v>278</v>
       </c>
       <c r="H27" s="27"/>
@@ -2947,12 +3457,12 @@
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C29" s="27"/>
       <c r="D29" s="24"/>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="35" t="s">
         <v>245</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
-      <c r="H29" s="39" t="s">
+      <c r="H29" s="35" t="s">
         <v>295</v>
       </c>
     </row>
@@ -2963,4 +3473,811 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3F5D8C-BA57-D746-A6D8-E78E0FFF7783}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="2" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="17"/>
+      <c r="B1" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="43"/>
+      <c r="B3" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="43"/>
+      <c r="B8" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="39"/>
+      <c r="B11" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="39"/>
+      <c r="B13" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="44"/>
+      <c r="B15" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="44"/>
+      <c r="B18" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994F9896-8371-2141-9C7E-E8C8D96738B2}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="17"/>
+      <c r="B1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="43"/>
+      <c r="B3" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="38"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="43"/>
+      <c r="B8" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="38"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="39"/>
+      <c r="B11" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="39"/>
+      <c r="B13" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="44"/>
+      <c r="B15" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="39"/>
+      <c r="B18" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="44"/>
+      <c r="B20" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>